--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="120" windowWidth="22760" windowHeight="11920"/>
+    <workbookView xWindow="380" yWindow="120" windowWidth="28960" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -52,21 +52,6 @@
     <t>work in progress</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>100h</t>
-  </si>
-  <si>
-    <t>200h</t>
-  </si>
-  <si>
-    <t>400h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -82,21 +67,6 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>UI, Controller</t>
   </si>
   <si>
@@ -106,12 +76,6 @@
     <t>Main Window</t>
   </si>
   <si>
-    <t>Patient Model</t>
-  </si>
-  <si>
-    <t>Data model for patient record needs to be created based on standard....</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -127,26 +91,192 @@
     <t>Skills</t>
   </si>
   <si>
-    <t>Settings</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ein Reminder erinnert Patient an Medikamenteinnahme zur richtigen Zeit und in der korrekten Dosis </t>
   </si>
   <si>
     <t xml:space="preserve">Erinnert den Benutzer der App an die Einnahme von Medikamenten, welche vom Arzt in die Liste der einzunehmenden Medikamente eingefügt wurde. Die Medikamente werden mit der empfohlenen Dosis eingetragen und dem Patienten für die Einnahme mit Anzeige der empfohlenen Dosis angezeigt. </t>
   </si>
   <si>
-    <t>Setting up different Configurations for the other Modules</t>
-  </si>
-  <si>
     <t>Der Patient kann seine definierten Skills -Funktion aufrufen</t>
+  </si>
+  <si>
+    <t>Package Diagram</t>
+  </si>
+  <si>
+    <t>System Architecture</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">design a software architecture taking into account
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Orator Std Slanted"/>
+        <family val="2"/>
+      </rPr>
+      <t>▶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> system requirements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Orator Std Slanted"/>
+        <family val="2"/>
+      </rPr>
+      <t>▶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> incl. the need for persistent data storage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Orator Std Slanted"/>
+        <family val="2"/>
+      </rPr>
+      <t>▶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> architectural design patterns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Orator Std Slanted"/>
+        <family val="2"/>
+      </rPr>
+      <t>▶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the Vaadin framework</t>
+    </r>
+  </si>
+  <si>
+    <t>Creating a UML package diagram to show the high-level structure of application.</t>
+  </si>
+  <si>
+    <t>gnagj1</t>
+  </si>
+  <si>
+    <t>vonkc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainview </t>
+  </si>
+  <si>
+    <t>Helpview</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Create a Model based on the Requirements for the Help Scenario</t>
+  </si>
+  <si>
+    <t>Class Diagramm</t>
+  </si>
+  <si>
+    <t>LoginView</t>
+  </si>
+  <si>
+    <t>Create a Login view for later user specific Data Handling</t>
+  </si>
+  <si>
+    <t>BLL</t>
+  </si>
+  <si>
+    <t>User Data Manager</t>
+  </si>
+  <si>
+    <t>Create a Manager that gets the right Data based on the View and the logged in user</t>
+  </si>
+  <si>
+    <t>LoginManager</t>
+  </si>
+  <si>
+    <t>Based on the Login Data given the Manager must grant access or dissalow by checking data from database</t>
+  </si>
+  <si>
+    <t>Create a Class Diagram / Domain Diagram for classes required</t>
+  </si>
+  <si>
+    <t>Create the Helpview with its Controller and also beginn with the corresponding Settings view</t>
+  </si>
+  <si>
+    <t>Create the Mainview of the Application in which the different views are displayed and a ViewManager</t>
+  </si>
+  <si>
+    <t>80h</t>
+  </si>
+  <si>
+    <t>70h</t>
+  </si>
+  <si>
+    <t>150h</t>
+  </si>
+  <si>
+    <t>MedicView</t>
+  </si>
+  <si>
+    <t>Create the MedicView with its Controller and also beginn with the corresponding Settings view</t>
+  </si>
+  <si>
+    <t>Persistent Storage</t>
+  </si>
+  <si>
+    <t>Store for the different Personal Data</t>
+  </si>
+  <si>
+    <t>SkillsView</t>
+  </si>
+  <si>
+    <t>Create the SkillsView with its Controller and also beginn with the corresponding Settings view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +302,28 @@
       <color theme="1"/>
       <name val="TimesNewRomanPSMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Orator Std Slanted"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,25 +348,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,15 +699,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
@@ -532,67 +715,64 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="14" customHeight="1">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,37 +780,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:H5">
@@ -648,24 +825,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -674,95 +851,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="56">
+    <row r="2" spans="1:11" ht="78">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28">
       <c r="A3">
         <v>1.2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>6</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -775,70 +946,66 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <f>SUM(I4:I4)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
       <c r="K5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -846,18 +1013,207 @@
       <c r="H6">
         <v>8</v>
       </c>
-      <c r="I6">
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28">
+      <c r="A10">
+        <v>1.9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28">
+      <c r="A11">
+        <v>2.1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>9</v>
+    </row>
+    <row r="12" spans="1:11" ht="28">
+      <c r="A12">
+        <v>3.1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>2.4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>2.5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>2.6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>2.7</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>2.8</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>2.9</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="120" windowWidth="28960" windowHeight="17640" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="0" windowWidth="23720" windowHeight="19500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Effort Actual</t>
-  </si>
-  <si>
-    <t>UI, Controller</t>
   </si>
   <si>
     <t>All</t>
@@ -221,9 +218,6 @@
     <t>Create a Login view for later user specific Data Handling</t>
   </si>
   <si>
-    <t>BLL</t>
-  </si>
-  <si>
     <t>User Data Manager</t>
   </si>
   <si>
@@ -239,27 +233,15 @@
     <t>Create a Class Diagram / Domain Diagram for classes required</t>
   </si>
   <si>
-    <t>Create the Helpview with its Controller and also beginn with the corresponding Settings view</t>
-  </si>
-  <si>
     <t>Create the Mainview of the Application in which the different views are displayed and a ViewManager</t>
   </si>
   <si>
-    <t>80h</t>
-  </si>
-  <si>
     <t>70h</t>
   </si>
   <si>
-    <t>150h</t>
-  </si>
-  <si>
     <t>MedicView</t>
   </si>
   <si>
-    <t>Create the MedicView with its Controller and also beginn with the corresponding Settings view</t>
-  </si>
-  <si>
     <t>Persistent Storage</t>
   </si>
   <si>
@@ -269,7 +251,85 @@
     <t>SkillsView</t>
   </si>
   <si>
-    <t>Create the SkillsView with its Controller and also beginn with the corresponding Settings view</t>
+    <t xml:space="preserve">Running Total Effort Org. </t>
+  </si>
+  <si>
+    <t>Running Total Effort Upd.</t>
+  </si>
+  <si>
+    <t>Running Total Effort Act.</t>
+  </si>
+  <si>
+    <t>Data Model</t>
+  </si>
+  <si>
+    <t>UserDataManger</t>
+  </si>
+  <si>
+    <t>UI, Presenter</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Test the current Application on Errors</t>
+  </si>
+  <si>
+    <t>Design the Data Model for the Persistent Storage</t>
+  </si>
+  <si>
+    <t>Data Access</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>UI, Persenter</t>
+  </si>
+  <si>
+    <t>Create the Database Access Component, implementing the DataAccess Interface</t>
+  </si>
+  <si>
+    <t>DataAccess</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Create the Helpview with its Presenter and also beginn with the corresponding Settings view</t>
+  </si>
+  <si>
+    <t>Create the MedicView with its Presenter and also beginn with the corresponding Settings view</t>
+  </si>
+  <si>
+    <t>Create the SkillsView with its Presenter and also beginn with the corresponding Settings view</t>
+  </si>
+  <si>
+    <t>ReminderComponent, Calendar</t>
+  </si>
+  <si>
+    <t>Reminder for due times to take medication, for each user and selected medic a timer needs to be created</t>
+  </si>
+  <si>
+    <t>Edit the Model to store the medication data</t>
+  </si>
+  <si>
+    <t>Solution to Push Reminder to User when not logged in.</t>
+  </si>
+  <si>
+    <t>work in prorgress</t>
+  </si>
+  <si>
+    <t>RemeinderComponent</t>
+  </si>
+  <si>
+    <t>60h</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>40h</t>
   </si>
 </sst>
 </file>
@@ -325,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +414,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -364,8 +430,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,8 +468,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="35">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -391,6 +481,16 @@
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -398,6 +498,16 @@
     <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -700,7 +810,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -729,10 +839,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>14</v>
@@ -746,16 +856,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -763,16 +876,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -780,16 +896,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -797,16 +916,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -825,10 +947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -836,17 +958,20 @@
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46" style="7" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -869,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
@@ -880,8 +1005,17 @@
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="78">
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="78">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -889,16 +1023,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -909,8 +1043,20 @@
       <c r="K2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="28">
+      <c r="M2">
+        <f>SUM(H$2:H2)</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>SUM(I$2:I2)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>SUM(J$2:J2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -918,16 +1064,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -938,8 +1084,20 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3">
+        <f>SUM(H$2:H3)</f>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f>SUM(I$2:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>SUM(J$2:J3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -947,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -964,8 +1122,20 @@
       <c r="K4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="28">
+      <c r="M4">
+        <f>SUM(H$2:H4)</f>
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <f>SUM(I$2:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>SUM(J$2:J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -973,25 +1143,37 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="28">
+      <c r="M5">
+        <f>SUM(H$2:H5)</f>
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <f>SUM(I$2:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>SUM(J$2:J5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -999,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1016,8 +1198,20 @@
       <c r="K6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6">
+        <f>SUM(H$2:H6)</f>
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <f>SUM(I$2:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>SUM(J$2:J6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1025,25 +1219,37 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7">
+        <f>SUM(H$2:H7)</f>
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <f>SUM(I$2:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>SUM(J$2:J7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1051,25 +1257,37 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="28">
+      <c r="M8">
+        <f>SUM(H$2:H8)</f>
+        <v>32</v>
+      </c>
+      <c r="N8">
+        <f>SUM(I$2:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>SUM(J$2:J8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28">
       <c r="A9">
         <v>1.8</v>
       </c>
@@ -1077,13 +1295,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>6</v>
@@ -1094,8 +1312,20 @@
       <c r="K9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="28">
+      <c r="M9">
+        <f>SUM(H$2:H9)</f>
+        <v>51</v>
+      </c>
+      <c r="N9">
+        <f>SUM(I$2:I9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>SUM(J$2:J9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28">
       <c r="A10">
         <v>1.9</v>
       </c>
@@ -1103,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -1120,95 +1350,365 @@
       <c r="K10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="28">
-      <c r="A11">
+      <c r="M10">
+        <f>SUM(H$2:H10)</f>
+        <v>70</v>
+      </c>
+      <c r="N10">
+        <f>SUM(I$2:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>SUM(J$2:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="8" customFormat="1">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" ht="28">
+      <c r="A12">
         <v>2.1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28">
-      <c r="A12">
-        <v>3.1</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <f>SUM(H$12:H12)</f>
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <f>SUM(I$12:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>SUM(J$12:J12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28">
       <c r="A13">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <f>SUM(H$12:H13)</f>
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <f>SUM(I$12:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>SUM(J$12:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <f>SUM(H$12:H14)</f>
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <f>SUM(I$12:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>SUM(J$12:J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="28">
       <c r="A15">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <f>SUM(H$12:H15)</f>
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <f>SUM(I$12:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>SUM(J$12:J15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <f>SUM(H$12:H16)</f>
+        <v>70</v>
+      </c>
+      <c r="N16">
+        <f>SUM(I$12:I16)</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>SUM(J$12:J16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2.8</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>2.9</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <f>SUM(H$12:H17)</f>
+        <v>80</v>
+      </c>
+      <c r="N17">
+        <f>SUM(I$12:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>SUM(J$12:J17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="8" customFormat="1">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <f>SUM(H$22:H22)</f>
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <f>SUM(I$12:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>SUM(J$12:J22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="28">
+      <c r="A23">
+        <v>4.2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <f>SUM(H$22:H23)</f>
+        <v>30</v>
+      </c>
+      <c r="N23">
+        <f>SUM(I$12:I23)</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>SUM(J$12:J23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>4.3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <f>SUM(H$22:H24)</f>
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <f>SUM(I$12:I24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>SUM(J$12:J24)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -884,7 +884,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="23720" windowHeight="19500" activeTab="1"/>
+    <workbookView xWindow="7080" yWindow="0" windowWidth="26520" windowHeight="20480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Helpview</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>LoginView</t>
   </si>
   <si>
@@ -130,21 +127,6 @@
     <t>Create the Mainview of the Application in which the different views are displayed and a ViewManager</t>
   </si>
   <si>
-    <t>MedicView</t>
-  </si>
-  <si>
-    <t>SkillsView</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Running Total Effort Org. </t>
-  </si>
-  <si>
-    <t>Running Total Effort Upd.</t>
-  </si>
-  <si>
-    <t>Running Total Effort Act.</t>
-  </si>
-  <si>
     <t>Data Model</t>
   </si>
   <si>
@@ -163,42 +145,15 @@
     <t>Database</t>
   </si>
   <si>
-    <t>UI, Persenter</t>
-  </si>
-  <si>
     <t>Create the Database Access Component, implementing the DataAccess Interface</t>
   </si>
   <si>
     <t>DataAccess</t>
   </si>
   <si>
-    <t>Reminder</t>
-  </si>
-  <si>
-    <t>Create the MedicView with its Presenter and also beginn with the corresponding Settings view</t>
-  </si>
-  <si>
-    <t>Create the SkillsView with its Presenter and also beginn with the corresponding Settings view</t>
-  </si>
-  <si>
-    <t>ReminderComponent, Calendar</t>
-  </si>
-  <si>
-    <t>Reminder for due times to take medication, for each user and selected medic a timer needs to be created</t>
-  </si>
-  <si>
-    <t>Edit the Model to store the medication data</t>
-  </si>
-  <si>
-    <t>Solution to Push Reminder to User when not logged in.</t>
-  </si>
-  <si>
     <t>work in prorgress</t>
   </si>
   <si>
-    <t>RemeinderComponent</t>
-  </si>
-  <si>
     <t>40h</t>
   </si>
   <si>
@@ -244,7 +199,37 @@
     <t>messv1</t>
   </si>
   <si>
-    <t>watining</t>
+    <t>work in progress</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>MainView Settings</t>
+  </si>
+  <si>
+    <t>HelpView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoginManager </t>
+  </si>
+  <si>
+    <t>LoginManager with Interface für DataAccess und DatenBank-Klasse</t>
+  </si>
+  <si>
+    <t>Medication View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View für Meeication und Reminder </t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>MedicationView Settings</t>
+  </si>
+  <si>
+    <t>UI, BLL</t>
   </si>
 </sst>
 </file>
@@ -329,8 +314,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -407,7 +404,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="63">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -433,6 +430,12 @@
     <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -458,6 +461,12 @@
     <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,10 +824,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -835,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -855,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -881,10 +890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -905,7 +914,7 @@
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,17 +948,8 @@
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="42">
+    </row>
+    <row r="2" spans="1:11" ht="42">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -960,13 +960,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -975,22 +975,10 @@
         <v>10</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2">
-        <f>SUM(H$2:H2)</f>
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <f>SUM(I$2:I2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>SUM(J$2:J2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1001,13 +989,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1016,22 +1004,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <f>SUM(H$2:H5)</f>
-        <v>30</v>
-      </c>
-      <c r="N3">
-        <f>SUM(I$2:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>SUM(J$2:J5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1039,16 +1015,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1057,10 +1033,10 @@
         <v>8</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1068,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1086,10 +1062,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="28">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1097,13 +1073,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1115,22 +1091,10 @@
         <v>6</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <f>SUM(H$2:H6)</f>
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <f>SUM(I$2:I6)</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>SUM(J$2:J6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="42">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1138,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -1156,32 +1120,20 @@
         <v>19</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <f>SUM(H$2:H7)</f>
-        <v>55</v>
-      </c>
-      <c r="N7">
-        <f>SUM(I$2:I7)</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>SUM(J$2:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="42">
+    <row r="10" spans="1:11" ht="42">
       <c r="A10">
         <v>1.9</v>
       </c>
@@ -1189,16 +1141,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>6</v>
@@ -1209,23 +1161,11 @@
       <c r="K10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M10">
-        <f>SUM(H$2:H10)</f>
-        <v>74</v>
-      </c>
-      <c r="N10">
-        <f>SUM(I$2:I10)</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>SUM(J$2:J10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="8" customFormat="1">
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1">
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:15" ht="42">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2.1</v>
       </c>
@@ -1233,37 +1173,22 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
       </c>
       <c r="H12">
-        <v>16</v>
-      </c>
-      <c r="K12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <f>SUM(H$12:H12)</f>
-        <v>16</v>
-      </c>
-      <c r="N12">
-        <f>SUM(I$12:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>SUM(J$12:J12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="42">
+        <v>10</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>3.1</v>
       </c>
@@ -1271,37 +1196,22 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
       </c>
       <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="K13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <f>SUM(H$12:H13)</f>
-        <v>24</v>
-      </c>
-      <c r="N13">
-        <f>SUM(I$12:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f>SUM(J$12:J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28">
       <c r="A14">
         <v>2.2999999999999998</v>
       </c>
@@ -1309,37 +1219,25 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <f>SUM(H$12:H14)</f>
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <f>SUM(I$12:I14)</f>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f>SUM(J$12:J14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="42">
+        <v>10</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2.4</v>
       </c>
@@ -1347,37 +1245,22 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
       </c>
       <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <f>SUM(H$12:H15)</f>
-        <v>50</v>
-      </c>
-      <c r="N15">
-        <f>SUM(I$12:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f>SUM(J$12:J15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="28">
+        <v>10</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2.5</v>
       </c>
@@ -1385,37 +1268,25 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
       </c>
       <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
         <v>8</v>
       </c>
-      <c r="M16">
-        <f>SUM(H$12:H16)</f>
-        <v>70</v>
-      </c>
-      <c r="N16">
-        <f>SUM(I$12:I16)</f>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f>SUM(J$12:J16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="28">
+      <c r="K16" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2.6</v>
       </c>
@@ -1423,151 +1294,127 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="K17" t="s">
         <v>8</v>
       </c>
-      <c r="M17">
-        <f>SUM(H$12:H17)</f>
-        <v>80</v>
-      </c>
-      <c r="N17">
-        <f>SUM(I$12:I17)</f>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f>SUM(J$12:J17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="8" customFormat="1">
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" ht="28">
-      <c r="A22">
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="28">
+      <c r="A24">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-      <c r="K22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22">
-        <f>SUM(H$22:H22)</f>
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <f>SUM(I$12:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f>SUM(J$12:J22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="42">
-      <c r="A23">
-        <v>4.2</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <f>SUM(H$22:H23)</f>
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <f>SUM(I$12:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f>SUM(J$12:J23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
-        <v>4.3</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
         <v>8</v>
       </c>
-      <c r="M24">
-        <f>SUM(H$22:H24)</f>
-        <v>40</v>
-      </c>
-      <c r="N24">
-        <f>SUM(I$12:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f>SUM(J$12:J24)</f>
-        <v>0</v>
+    </row>
+    <row r="25" spans="1:11" ht="42">
+      <c r="A25">
+        <v>4.2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>4.3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="0" windowWidth="26520" windowHeight="20480" activeTab="1"/>
+    <workbookView xWindow="2560" yWindow="0" windowWidth="26520" windowHeight="20480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1313,27 +1313,18 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="B18">
-        <v>2</v>
-      </c>
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11">
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="B20">
-        <v>2</v>
-      </c>
       <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11">
       <c r="K21" s="10"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22">
-        <v>2</v>
-      </c>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1">

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -893,7 +893,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Create a Login view for later user specific Data Handling</t>
   </si>
   <si>
-    <t>User Data Manager</t>
-  </si>
-  <si>
-    <t>Create a Manager that gets the right Data based on the View and the logged in user</t>
-  </si>
-  <si>
     <t>LoginManager</t>
   </si>
   <si>
@@ -230,6 +224,33 @@
   </si>
   <si>
     <t>UI, BLL</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Find a Part that is likely to change to implement State Pattern</t>
+  </si>
+  <si>
+    <t>Encryption of passwords</t>
+  </si>
+  <si>
+    <t>BLL, LoginManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Data </t>
+  </si>
+  <si>
+    <t>User Data Manager, DataAccess</t>
+  </si>
+  <si>
+    <t>Implement logic to get specific Data for the logged in User</t>
   </si>
 </sst>
 </file>
@@ -314,8 +335,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -404,7 +431,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="69">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -436,6 +463,9 @@
     <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -467,6 +497,9 @@
     <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -824,10 +857,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -844,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -864,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -890,10 +923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -902,7 +935,7 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
@@ -960,13 +993,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -974,8 +1007,11 @@
       <c r="H2">
         <v>10</v>
       </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
       <c r="K2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28">
@@ -989,13 +1025,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1003,8 +1039,11 @@
       <c r="H3">
         <v>8</v>
       </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
       <c r="K3" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1015,16 +1054,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1032,8 +1071,11 @@
       <c r="H4">
         <v>8</v>
       </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
       <c r="K4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42">
@@ -1044,16 +1086,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1061,8 +1103,14 @@
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
       <c r="K5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28">
@@ -1079,7 +1127,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1090,8 +1138,14 @@
       <c r="H6">
         <v>6</v>
       </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
       <c r="K6" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42">
@@ -1102,13 +1156,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -1119,48 +1173,15 @@
       <c r="H7">
         <v>19</v>
       </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
       <c r="K7" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="42">
-      <c r="A10">
-        <v>1.9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>8</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1">
       <c r="D11" s="9"/>
@@ -1173,19 +1194,22 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1196,19 +1220,22 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28">
@@ -1219,22 +1246,31 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
       </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
       <c r="H14">
         <v>10</v>
       </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
       <c r="K14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1245,19 +1281,25 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
       <c r="K15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1268,22 +1310,31 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
       <c r="H16">
         <v>8</v>
       </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
       <c r="K16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1294,16 +1345,16 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1312,17 +1363,133 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="K18" s="10"/>
+    <row r="18" spans="1:11" ht="42">
+      <c r="A18">
+        <v>1.4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="K21" s="10"/>
+      <c r="A19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28">
+      <c r="A20">
+        <v>2.7</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28">
+      <c r="A21">
+        <v>2.8</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="K22" s="10"/>
@@ -1334,17 +1501,14 @@
       <c r="A24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
         <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1360,17 +1524,14 @@
       <c r="A25">
         <v>4.2</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
       <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -1386,14 +1547,11 @@
       <c r="A26">
         <v>4.3</v>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -1406,6 +1564,11 @@
       </c>
       <c r="K26" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="0" windowWidth="26520" windowHeight="20480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -220,9 +220,6 @@
     <t>UI</t>
   </si>
   <si>
-    <t>MedicationView Settings</t>
-  </si>
-  <si>
     <t>UI, BLL</t>
   </si>
   <si>
@@ -251,13 +248,16 @@
   </si>
   <si>
     <t>Implement logic to get specific Data for the logged in User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medication Settings View </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,8 +305,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +340,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F243E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -335,7 +362,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -405,8 +432,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,21 +448,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="73">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -466,6 +503,8 @@
     <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -500,6 +539,8 @@
     <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -925,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -934,7 +975,7 @@
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
@@ -948,628 +989,743 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42">
-      <c r="A2">
+      <c r="A2" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="10">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
         <v>4</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28">
-      <c r="A3">
+      <c r="A3" s="10">
         <v>1.2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="10">
         <v>8</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4">
+      <c r="A4" s="10">
         <v>1.3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="10">
         <v>10</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42">
-      <c r="A5">
+      <c r="A5" s="10">
         <v>1.4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>4</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="10">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28">
-      <c r="A6">
+      <c r="A6" s="10">
         <v>1.5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>6</v>
       </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="I6" s="10">
+        <v>2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42">
-      <c r="A7">
+      <c r="A7" s="10">
         <v>1.6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>19</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="10">
         <v>10</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="J7" s="10">
+        <v>6</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
+        <v>10</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1">
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>2.1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="14" spans="1:11" ht="28">
+      <c r="A14" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>10</v>
+      </c>
+      <c r="I14" s="10">
+        <v>6</v>
+      </c>
+      <c r="J14" s="10">
+        <v>6</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="H15" s="10">
         <v>10</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="I15" s="10">
+        <v>12</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>3.1</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H13">
+      <c r="H16" s="10">
+        <v>8</v>
+      </c>
+      <c r="I16" s="10">
         <v>10</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="J16" s="10">
+        <v>10</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10">
+        <v>8</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28">
-      <c r="A14">
+    <row r="18" spans="1:11" ht="42">
+      <c r="A18" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4</v>
+      </c>
+      <c r="I18" s="10">
+        <v>2</v>
+      </c>
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="10">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10">
+        <v>6</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28">
+      <c r="A20" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>6</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10">
+        <v>4</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28">
+      <c r="A21" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="10">
+        <v>10</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10">
+        <v>4</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="28">
+      <c r="A24" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="H24" s="10">
+        <v>12</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="42">
+      <c r="A25" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="10">
+        <v>18</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="10">
         <v>10</v>
       </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>2.4</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>2.5</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>2.6</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="42">
-      <c r="A18">
-        <v>1.4</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>6</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="28">
-      <c r="A20">
-        <v>2.7</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28">
-      <c r="A21">
-        <v>2.8</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1">
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" ht="28">
-      <c r="A24">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="K24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="42">
-      <c r="A25">
-        <v>4.2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>4.3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="K26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -121,27 +121,12 @@
     <t>Create the Mainview of the Application in which the different views are displayed and a ViewManager</t>
   </si>
   <si>
-    <t>Data Model</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>Test the current Application on Errors</t>
   </si>
   <si>
-    <t>Design the Data Model for the Persistent Storage</t>
-  </si>
-  <si>
-    <t>Data Access</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Create the Database Access Component, implementing the DataAccess Interface</t>
-  </si>
-  <si>
     <t>DataAccess</t>
   </si>
   <si>
@@ -251,6 +236,12 @@
   </si>
   <si>
     <t xml:space="preserve">Medication Settings View </t>
+  </si>
+  <si>
+    <t>Pseudo Persistent Storage</t>
+  </si>
+  <si>
+    <t>Allow acutal Data be viewed by Patient and Staff</t>
   </si>
 </sst>
 </file>
@@ -362,8 +353,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -468,7 +473,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="87">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -505,6 +510,13 @@
     <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -541,6 +553,13 @@
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -898,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -918,7 +937,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -938,7 +957,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -964,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1040,7 +1059,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>5</v>
@@ -1053,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28">
@@ -1067,13 +1086,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>5</v>
@@ -1086,7 +1105,7 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1097,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>5</v>
@@ -1119,7 +1138,7 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42">
@@ -1130,16 +1149,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>5</v>
@@ -1154,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28">
@@ -1171,7 +1190,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>24</v>
@@ -1189,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="42">
@@ -1206,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>25</v>
@@ -1224,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1287,14 +1306,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>5</v>
@@ -1307,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1318,14 +1337,14 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>5</v>
@@ -1336,7 +1355,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28">
@@ -1347,13 +1366,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>25</v>
@@ -1371,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1382,14 +1401,14 @@
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>5</v>
@@ -1402,7 +1421,7 @@
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1413,13 +1432,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>24</v>
@@ -1437,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1448,16 +1467,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>5</v>
@@ -1468,7 +1487,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="42">
@@ -1479,16 +1498,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>5</v>
@@ -1503,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1514,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>25</v>
@@ -1538,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28">
@@ -1549,13 +1568,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>24</v>
@@ -1569,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28">
@@ -1580,13 +1599,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>24</v>
@@ -1602,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1631,101 +1650,185 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
     </row>
-    <row r="24" spans="1:11" ht="28">
+    <row r="24" spans="1:11">
       <c r="A24" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
       <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="G24" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="42">
+      <c r="K24" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="10">
         <v>4.2</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
       <c r="C25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="G25" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="10">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="K25" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28">
       <c r="A26" s="10">
         <v>4.3</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="10">
+        <v>3</v>
+      </c>
       <c r="C26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="10">
+        <v>8</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="B27" s="10">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H27" s="10">
         <v>10</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="B28" s="10">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="10">
+        <v>10</v>
+      </c>
+      <c r="I28" s="10">
+        <v>12</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="B29" s="10">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="10">
+        <v>8</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="12" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Allow acutal Data be viewed by Patient and Staff</t>
+  </si>
+  <si>
+    <t>Class Diagrams</t>
   </si>
 </sst>
 </file>
@@ -474,93 +477,93 @@
     </xf>
   </cellXfs>
   <cellStyles count="87">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,17 +986,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="8.33203125" customWidth="1"/>
@@ -1830,6 +1833,32 @@
         <v>52</v>
       </c>
     </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="10">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="10">
+        <v>4</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14500" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -245,6 +245,24 @@
   </si>
   <si>
     <t>Class Diagrams</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>Persistent Storage on File</t>
+  </si>
+  <si>
+    <t>Database, DataAccess</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Review the code for formal correctness</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
@@ -477,93 +495,93 @@
     </xf>
   </cellXfs>
   <cellStyles count="87">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -986,9 +1004,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -1424,7 +1442,7 @@
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1560,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28">
@@ -1799,7 +1817,7 @@
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1857,6 +1875,55 @@
       </c>
       <c r="K30" s="12" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="10">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="10">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/doc/scrum_green.xlsx
+++ b/doc/scrum_green.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="30860" windowHeight="18640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>all</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -374,8 +377,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -494,7 +499,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="89">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -538,6 +543,7 @@
     <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -581,6 +587,7 @@
     <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1007,7 +1014,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1124,9 +1131,11 @@
       <c r="I3" s="10">
         <v>8</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="10">
+        <v>10</v>
+      </c>
       <c r="K3" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1151,12 +1160,8 @@
       <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10">
-        <v>8</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="12" t="s">
         <v>52</v>
@@ -1370,9 +1375,7 @@
       <c r="G13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="10">
-        <v>10</v>
-      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="12" t="s">
@@ -1440,7 +1443,9 @@
       <c r="I15" s="10">
         <v>12</v>
       </c>
-      <c r="J15" s="10"/>
+      <c r="J15" s="10">
+        <v>6</v>
+      </c>
       <c r="K15" s="12" t="s">
         <v>53</v>
       </c>
@@ -1506,7 +1511,9 @@
         <v>8</v>
       </c>
       <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="10">
+        <v>8</v>
+      </c>
       <c r="K17" s="12" t="s">
         <v>52</v>
       </c>
@@ -1578,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28">
@@ -1600,7 +1607,9 @@
       <c r="F20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="H20" s="10">
         <v>6</v>
       </c>
@@ -1697,7 +1706,9 @@
         <v>10</v>
       </c>
       <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="10">
+        <v>4</v>
+      </c>
       <c r="K24" s="12" t="s">
         <v>52</v>
       </c>
@@ -1726,9 +1737,11 @@
         <v>8</v>
       </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="J25" s="10">
+        <v>14</v>
+      </c>
       <c r="K25" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28">
@@ -1756,8 +1769,11 @@
       <c r="H26" s="10">
         <v>8</v>
       </c>
+      <c r="J26" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="K26" s="12" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1784,9 +1800,11 @@
         <v>10</v>
       </c>
       <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="J27" s="10">
+        <v>12</v>
+      </c>
       <c r="K27" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1815,7 +1833,9 @@
       <c r="I28" s="10">
         <v>12</v>
       </c>
-      <c r="J28" s="10"/>
+      <c r="J28" s="10">
+        <v>12</v>
+      </c>
       <c r="K28" s="12" t="s">
         <v>53</v>
       </c>
@@ -1846,7 +1866,9 @@
         <v>8</v>
       </c>
       <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="J29" s="10">
+        <v>8</v>
+      </c>
       <c r="K29" s="12" t="s">
         <v>52</v>
       </c>
@@ -1873,8 +1895,11 @@
       <c r="H30" s="10">
         <v>4</v>
       </c>
+      <c r="J30" s="10">
+        <v>4</v>
+      </c>
       <c r="K30" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1899,6 +1924,9 @@
       <c r="I31">
         <v>10</v>
       </c>
+      <c r="J31" s="10">
+        <v>8</v>
+      </c>
       <c r="K31" s="12" t="s">
         <v>53</v>
       </c>
@@ -1924,6 +1952,12 @@
       </c>
       <c r="H32" s="10">
         <v>6</v>
+      </c>
+      <c r="J32" s="10">
+        <v>6</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
